--- a/Визуализация по вопросам проект 3.xlsx
+++ b/Визуализация по вопросам проект 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximmanuyko/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximmanuyko/Documents/GitHub/data-analytics-project-100/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5393BEA8-2964-9847-8F03-EA90ADFEEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C1C80-487E-A94F-89B3-C92D1E922806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{7D0CEA60-ADC9-C64B-BE85-3737EDED7D61}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{7D0CEA60-ADC9-C64B-BE85-3737EDED7D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>Таблица</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">Считаем количество регистраций по datetime и platform. </t>
-  </si>
-  <si>
-    <t>считаем поформуле  (registrations/visits)*100</t>
   </si>
   <si>
     <t>Дата(День)</t>
@@ -207,6 +204,12 @@
   </si>
   <si>
     <t xml:space="preserve">На мой взгляд какая-то нелепая и бесполезная таблица. </t>
+  </si>
+  <si>
+    <t>считаем по формуле  (registrations/visits)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значения в разрезе одного дня в колонках "platform",	"visits", "registrations" будут повторяться каждые три строчки. </t>
   </si>
 </sst>
 </file>
@@ -337,9 +340,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -357,13 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -694,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585C921-5353-894B-ADE8-51281C3AA1DF}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,23 +712,22 @@
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -739,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -753,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" customFormat="1" ht="68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -764,11 +766,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -785,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -802,7 +803,7 @@
         <v>384812</v>
       </c>
     </row>
-    <row r="11" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -819,25 +820,25 @@
         <v>207766</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
@@ -854,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -871,7 +872,7 @@
         <v>8838849</v>
       </c>
     </row>
-    <row r="18" spans="1:6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -883,9 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -905,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -925,7 +924,7 @@
         <v>27934</v>
       </c>
     </row>
-    <row r="23" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -945,13 +944,12 @@
         <v>27903</v>
       </c>
     </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" customFormat="1" ht="44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -988,12 +986,12 @@
         <v>30</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>8</v>
@@ -1002,23 +1000,23 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1026,29 +1024,29 @@
     </row>
     <row r="34" spans="1:8" ht="44" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="F37" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1059,10 +1057,10 @@
         <v>21</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F38" s="9">
         <v>238</v>
@@ -1070,12 +1068,12 @@
     </row>
     <row r="44" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>26</v>
@@ -1093,237 +1091,330 @@
         <v>27</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="46" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="B46" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
       <c r="G46" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3</v>
+      </c>
+      <c r="E48" s="9">
+        <v>3</v>
+      </c>
+      <c r="F48" s="9">
+        <v>3</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
       <c r="G49" s="9"/>
       <c r="H49" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="D50" s="9">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2</v>
+      </c>
       <c r="G50" s="9"/>
       <c r="H50" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D51" s="9">
+        <v>3</v>
+      </c>
+      <c r="E51" s="9">
+        <v>3</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
       <c r="G52" s="9"/>
       <c r="H52" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="D53" s="9">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2</v>
+      </c>
       <c r="G53" s="9"/>
       <c r="H53" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3</v>
+      </c>
+      <c r="F54" s="9">
+        <v>3</v>
+      </c>
       <c r="G54" s="9"/>
       <c r="H54" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
       <c r="G55" s="9"/>
       <c r="H55" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="D56" s="9">
+        <v>2</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2</v>
+      </c>
       <c r="G56" s="9"/>
       <c r="H56" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+      <c r="E57" s="9">
+        <v>3</v>
+      </c>
+      <c r="F57" s="9">
+        <v>3</v>
+      </c>
       <c r="G57" s="9"/>
       <c r="H57" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
       <c r="G58" s="9"/>
       <c r="H58" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+      <c r="D59" s="9">
+        <v>2</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2</v>
+      </c>
       <c r="G59" s="9"/>
       <c r="H59" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3</v>
+      </c>
+      <c r="E60" s="9">
+        <v>3</v>
+      </c>
+      <c r="F60" s="9">
+        <v>3</v>
+      </c>
       <c r="G60" s="9"/>
       <c r="H60" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Визуализация по вопросам проект 3.xlsx
+++ b/Визуализация по вопросам проект 3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximmanuyko/Documents/GitHub/data-analytics-project-100/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C1C80-487E-A94F-89B3-C92D1E922806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89656F3-CCAA-A94C-8686-D76C54E789C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{7D0CEA60-ADC9-C64B-BE85-3737EDED7D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Таблица</t>
   </si>
@@ -197,26 +197,26 @@
     <t>web_dev_workshop_series</t>
   </si>
   <si>
-    <t>Тут будет одна цифра, в разрезе дня, так можно агрегировать в ads.csv можно будет только по датам. Либо 5 цифр в разрезе дня групируя по campaign.</t>
-  </si>
-  <si>
     <t>В этом шаге добавим данные по рекламным кампаниям. На выходе получим датафрейм со следующими полями:</t>
   </si>
   <si>
-    <t xml:space="preserve">На мой взгляд какая-то нелепая и бесполезная таблица. </t>
-  </si>
-  <si>
     <t>считаем по формуле  (registrations/visits)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">Значения в разрезе одного дня в колонках "platform",	"visits", "registrations" будут повторяться каждые три строчки. </t>
+    <t xml:space="preserve">Значения в разрезе одного дня в колонках "platform",	"visits", "registrations", "conversion" будут повторяться каждые три строчки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В колонке cost будет пять цифр, каждая будет повторяться три раза. в разрезе дня групируясь по campaign. Для каждой "platform" платформ сумма расхода будет одинаковой так как эти данные ни как в таблицах не связаны. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,18 +259,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,16 +286,60 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -330,11 +362,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,25 +410,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,15 +435,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -695,25 +775,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585C921-5353-894B-ADE8-51281C3AA1DF}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -728,16 +807,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -762,10 +841,10 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -773,16 +852,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -824,7 +903,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -839,19 +918,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -880,7 +959,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -888,19 +967,19 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -945,7 +1024,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -953,40 +1032,40 @@
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:6" s="14" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>55</v>
+      <c r="F28" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,34 +1101,34 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="44" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:9" ht="44" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <v>44986.386770833335</v>
       </c>
@@ -1066,358 +1145,434 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9">
-        <v>1</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="11" t="s">
+      <c r="D46" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="25">
+        <v>500</v>
+      </c>
+      <c r="F46" s="26">
+        <f>(E46/D46)*100</f>
+        <v>5</v>
+      </c>
+      <c r="G46" s="31">
+        <v>100</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="I46" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="9">
-        <v>2</v>
-      </c>
-      <c r="E47" s="9">
-        <v>2</v>
-      </c>
-      <c r="F47" s="9">
-        <v>2</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="11" t="s">
+      <c r="D47" s="27">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F47" s="28">
+        <f t="shared" ref="F47:F60" si="0">(E47/D47)*100</f>
+        <v>75</v>
+      </c>
+      <c r="G47" s="32">
+        <v>100</v>
+      </c>
+      <c r="H47" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="9">
-        <v>3</v>
-      </c>
-      <c r="E48" s="9">
-        <v>3</v>
-      </c>
-      <c r="F48" s="9">
-        <v>3</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="11" t="s">
+      <c r="D48" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="29">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="30">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G48" s="32">
+        <v>100</v>
+      </c>
+      <c r="H48" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="12" t="s">
+      <c r="D49" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E49" s="25">
+        <v>500</v>
+      </c>
+      <c r="F49" s="26">
+        <f>(E49/D49)*100</f>
+        <v>5</v>
+      </c>
+      <c r="G49" s="33">
+        <v>200</v>
+      </c>
+      <c r="H49" s="33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="9">
-        <v>2</v>
-      </c>
-      <c r="E50" s="9">
-        <v>2</v>
-      </c>
-      <c r="F50" s="9">
-        <v>2</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="12" t="s">
+      <c r="D50" s="27">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F50" s="28">
+        <f t="shared" ref="F50:F51" si="1">(E50/D50)*100</f>
+        <v>75</v>
+      </c>
+      <c r="G50" s="33">
+        <v>200</v>
+      </c>
+      <c r="H50" s="33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="9">
-        <v>3</v>
-      </c>
-      <c r="E51" s="9">
-        <v>3</v>
-      </c>
-      <c r="F51" s="9">
-        <v>3</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="12" t="s">
+      <c r="D51" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="29">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="30">
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G51" s="33">
+        <v>200</v>
+      </c>
+      <c r="H51" s="33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="9">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="12" t="s">
+      <c r="D52" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="25">
+        <v>500</v>
+      </c>
+      <c r="F52" s="26">
+        <f>(E52/D52)*100</f>
+        <v>5</v>
+      </c>
+      <c r="G52" s="29">
+        <v>300</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="9">
-        <v>2</v>
-      </c>
-      <c r="E53" s="9">
-        <v>2</v>
-      </c>
-      <c r="F53" s="9">
-        <v>2</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="12" t="s">
+      <c r="D53" s="27">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F53" s="28">
+        <f t="shared" ref="F53:F54" si="2">(E53/D53)*100</f>
+        <v>75</v>
+      </c>
+      <c r="G53" s="29">
+        <v>300</v>
+      </c>
+      <c r="H53" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="9">
-        <v>3</v>
-      </c>
-      <c r="E54" s="9">
-        <v>3</v>
-      </c>
-      <c r="F54" s="9">
-        <v>3</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="12" t="s">
+      <c r="D54" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="29">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="30">
+        <f t="shared" si="2"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G54" s="29">
+        <v>300</v>
+      </c>
+      <c r="H54" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9">
-        <v>1</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="12" t="s">
+      <c r="D55" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E55" s="25">
+        <v>500</v>
+      </c>
+      <c r="F55" s="26">
+        <f>(E55/D55)*100</f>
+        <v>5</v>
+      </c>
+      <c r="G55" s="34">
+        <v>400</v>
+      </c>
+      <c r="H55" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="9">
-        <v>2</v>
-      </c>
-      <c r="E56" s="9">
-        <v>2</v>
-      </c>
-      <c r="F56" s="9">
-        <v>2</v>
-      </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="12" t="s">
+      <c r="D56" s="27">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F56" s="28">
+        <f t="shared" ref="F56:F57" si="3">(E56/D56)*100</f>
+        <v>75</v>
+      </c>
+      <c r="G56" s="34">
+        <v>400</v>
+      </c>
+      <c r="H56" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="9">
-        <v>3</v>
-      </c>
-      <c r="E57" s="9">
-        <v>3</v>
-      </c>
-      <c r="F57" s="9">
-        <v>3</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="12" t="s">
+      <c r="D57" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="29">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="30">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G57" s="34">
+        <v>400</v>
+      </c>
+      <c r="H57" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="B58" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="9">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="12" t="s">
+      <c r="D58" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="25">
+        <v>500</v>
+      </c>
+      <c r="F58" s="26">
+        <f>(E58/D58)*100</f>
+        <v>5</v>
+      </c>
+      <c r="G58" s="27">
+        <v>500</v>
+      </c>
+      <c r="H58" s="27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C59" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="9">
-        <v>2</v>
-      </c>
-      <c r="E59" s="9">
-        <v>2</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="12" t="s">
+      <c r="D59" s="27">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="28">
+        <f t="shared" ref="F59:F60" si="4">(E59/D59)*100</f>
+        <v>75</v>
+      </c>
+      <c r="G59" s="27">
+        <v>500</v>
+      </c>
+      <c r="H59" s="27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="21">
+        <v>44958</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="9">
-        <v>3</v>
-      </c>
-      <c r="E60" s="9">
-        <v>3</v>
-      </c>
-      <c r="F60" s="9">
-        <v>3</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="12" t="s">
+      <c r="D60" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="29">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="30">
+        <f t="shared" si="4"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G60" s="27">
+        <v>500</v>
+      </c>
+      <c r="H60" s="27" t="s">
         <v>51</v>
       </c>
+      <c r="I60" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I46:I60"/>
+    <mergeCell ref="A46:A60"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>